--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130886843</v>
       </c>
       <c r="B2" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>130886842</v>
       </c>
       <c r="B3" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>130886776</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>130886775</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>130886780</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>130886844</v>
       </c>
       <c r="B7" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>130886841</v>
       </c>
       <c r="B8" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>130886840</v>
       </c>
       <c r="B9" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>130886778</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>130886779</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>130886838</v>
       </c>
       <c r="B12" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>130886839</v>
       </c>
       <c r="B13" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>130886774</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>130886777</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>130886759</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>130886800</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130886812</v>
+        <v>130886806</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>434092</v>
+        <v>433991</v>
       </c>
       <c r="R18" t="n">
-        <v>7052113</v>
+        <v>7052181</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2359,10 +2359,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130886806</v>
+        <v>130886812</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>433991</v>
+        <v>434092</v>
       </c>
       <c r="R19" t="n">
-        <v>7052181</v>
+        <v>7052113</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2464,7 +2464,7 @@
         <v>130886804</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886836</v>
+        <v>130886831</v>
       </c>
       <c r="B21" t="n">
-        <v>91824</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,19 +2574,23 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2594,10 +2598,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434854</v>
+        <v>434871</v>
       </c>
       <c r="R21" t="n">
-        <v>7051718</v>
+        <v>7051709</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2630,6 +2634,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2656,10 +2665,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886831</v>
+        <v>130886818</v>
       </c>
       <c r="B22" t="n">
-        <v>57877</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2667,16 +2676,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2691,10 +2700,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434871</v>
+        <v>434272</v>
       </c>
       <c r="R22" t="n">
-        <v>7051709</v>
+        <v>7052031</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2731,7 +2740,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2758,10 +2767,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886792</v>
+        <v>130886794</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2793,10 +2802,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434158</v>
+        <v>434140</v>
       </c>
       <c r="R23" t="n">
-        <v>7052168</v>
+        <v>7052192</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2833,7 +2842,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2863,7 +2872,7 @@
         <v>130886801</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2965,7 +2974,7 @@
         <v>130886793</v>
       </c>
       <c r="B25" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3064,10 +3073,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886794</v>
+        <v>130886792</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3099,10 +3108,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434140</v>
+        <v>434158</v>
       </c>
       <c r="R26" t="n">
-        <v>7052192</v>
+        <v>7052168</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3139,7 +3148,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,10 +3175,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130886818</v>
+        <v>130886836</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3177,23 +3186,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3201,10 +3206,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434272</v>
+        <v>434854</v>
       </c>
       <c r="R27" t="n">
-        <v>7052031</v>
+        <v>7051718</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3237,11 +3242,6 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3271,7 +3271,7 @@
         <v>130886760</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>130886827</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>130886787</v>
       </c>
       <c r="B30" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130886816</v>
+        <v>130886799</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>434134</v>
+        <v>434100</v>
       </c>
       <c r="R31" t="n">
-        <v>7052114</v>
+        <v>7052230</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3679,7 +3679,7 @@
         <v>130886766</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130886799</v>
+        <v>130886816</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>434100</v>
+        <v>434134</v>
       </c>
       <c r="R33" t="n">
-        <v>7052230</v>
+        <v>7052114</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3883,7 +3883,7 @@
         <v>130886824</v>
       </c>
       <c r="B34" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>130886770</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130886822</v>
+        <v>130886810</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4113,24 +4113,16 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>434465</v>
+        <v>434078</v>
       </c>
       <c r="R36" t="n">
-        <v>7051934</v>
+        <v>7052137</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4167,7 +4159,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4194,10 +4186,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130886810</v>
+        <v>130886822</v>
       </c>
       <c r="B37" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4223,16 +4215,24 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>434078</v>
+        <v>434465</v>
       </c>
       <c r="R37" t="n">
-        <v>7052137</v>
+        <v>7051934</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4299,7 +4299,7 @@
         <v>130886845</v>
       </c>
       <c r="B38" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886825</v>
+        <v>130886835</v>
       </c>
       <c r="B39" t="n">
-        <v>57880</v>
+        <v>91804</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4400,21 +4400,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434476</v>
+        <v>434666</v>
       </c>
       <c r="R39" t="n">
-        <v>7051885</v>
+        <v>7051843</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4460,11 +4460,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4494,7 +4489,7 @@
         <v>130886805</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4593,10 +4588,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886835</v>
+        <v>130886825</v>
       </c>
       <c r="B41" t="n">
-        <v>91800</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4604,21 +4599,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4628,10 +4623,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>434666</v>
+        <v>434476</v>
       </c>
       <c r="R41" t="n">
-        <v>7051843</v>
+        <v>7051885</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4664,6 +4659,11 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4690,10 +4690,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130886786</v>
+        <v>130886846</v>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4701,23 +4701,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -4725,10 +4721,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>434196</v>
+        <v>434095</v>
       </c>
       <c r="R42" t="n">
-        <v>7052215</v>
+        <v>7052227</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4761,11 +4757,6 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4795,7 +4786,7 @@
         <v>130886798</v>
       </c>
       <c r="B43" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4897,7 +4888,7 @@
         <v>130886828</v>
       </c>
       <c r="B44" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4996,10 +4987,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130886846</v>
+        <v>130886786</v>
       </c>
       <c r="B45" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5007,19 +4998,23 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5027,10 +5022,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>434095</v>
+        <v>434196</v>
       </c>
       <c r="R45" t="n">
-        <v>7052227</v>
+        <v>7052215</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5063,6 +5058,11 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5092,7 +5092,7 @@
         <v>130886763</v>
       </c>
       <c r="B46" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130886802</v>
+        <v>130886768</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>434012</v>
+        <v>434508</v>
       </c>
       <c r="R47" t="n">
-        <v>7052200</v>
+        <v>7052004</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5296,7 +5296,7 @@
         <v>130886773</v>
       </c>
       <c r="B48" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5395,10 +5395,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130886768</v>
+        <v>130886830</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5430,10 +5430,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>434508</v>
+        <v>434860</v>
       </c>
       <c r="R49" t="n">
-        <v>7052004</v>
+        <v>7051773</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5497,10 +5497,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130886830</v>
+        <v>130886802</v>
       </c>
       <c r="B50" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>434860</v>
+        <v>434012</v>
       </c>
       <c r="R50" t="n">
-        <v>7051773</v>
+        <v>7052200</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5602,7 +5602,7 @@
         <v>130886837</v>
       </c>
       <c r="B51" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5692,10 +5692,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130886791</v>
+        <v>130886788</v>
       </c>
       <c r="B52" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>434162</v>
+        <v>434171</v>
       </c>
       <c r="R52" t="n">
-        <v>7052153</v>
+        <v>7052213</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5794,10 +5794,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886765</v>
+        <v>130886811</v>
       </c>
       <c r="B53" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5829,10 +5829,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434505</v>
+        <v>434077</v>
       </c>
       <c r="R53" t="n">
-        <v>7052005</v>
+        <v>7052133</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5896,10 +5896,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886788</v>
+        <v>130886765</v>
       </c>
       <c r="B54" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434171</v>
+        <v>434505</v>
       </c>
       <c r="R54" t="n">
-        <v>7052213</v>
+        <v>7052005</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6001,7 +6001,7 @@
         <v>130886826</v>
       </c>
       <c r="B55" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886811</v>
+        <v>130886785</v>
       </c>
       <c r="B56" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6135,10 +6135,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434077</v>
+        <v>434191</v>
       </c>
       <c r="R56" t="n">
-        <v>7052133</v>
+        <v>7052193</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6202,10 +6202,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886785</v>
+        <v>130886791</v>
       </c>
       <c r="B57" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6237,10 +6237,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434191</v>
+        <v>434162</v>
       </c>
       <c r="R57" t="n">
-        <v>7052193</v>
+        <v>7052153</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6304,10 +6304,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130886771</v>
+        <v>130886814</v>
       </c>
       <c r="B58" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>434495</v>
+        <v>434117</v>
       </c>
       <c r="R58" t="n">
-        <v>7052002</v>
+        <v>7052108</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6409,7 +6409,7 @@
         <v>130886815</v>
       </c>
       <c r="B59" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130886814</v>
+        <v>130886781</v>
       </c>
       <c r="B60" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>434117</v>
+        <v>434196</v>
       </c>
       <c r="R60" t="n">
-        <v>7052108</v>
+        <v>7052172</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6610,10 +6610,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130886781</v>
+        <v>130886771</v>
       </c>
       <c r="B61" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>434196</v>
+        <v>434495</v>
       </c>
       <c r="R61" t="n">
-        <v>7052172</v>
+        <v>7052002</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130886817</v>
+        <v>130886797</v>
       </c>
       <c r="B62" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>434240</v>
+        <v>434118</v>
       </c>
       <c r="R62" t="n">
-        <v>7052045</v>
+        <v>7052153</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6817,7 +6817,7 @@
         <v>130886782</v>
       </c>
       <c r="B63" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6916,10 +6916,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130886797</v>
+        <v>130886817</v>
       </c>
       <c r="B64" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>434118</v>
+        <v>434240</v>
       </c>
       <c r="R64" t="n">
-        <v>7052153</v>
+        <v>7052045</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7021,7 +7021,7 @@
         <v>130886808</v>
       </c>
       <c r="B65" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130886795</v>
+        <v>130886829</v>
       </c>
       <c r="B66" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7155,10 +7155,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>434130</v>
+        <v>434697</v>
       </c>
       <c r="R66" t="n">
-        <v>7052154</v>
+        <v>7051780</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7222,10 +7222,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130886829</v>
+        <v>130886803</v>
       </c>
       <c r="B67" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7257,10 +7257,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>434697</v>
+        <v>433904</v>
       </c>
       <c r="R67" t="n">
-        <v>7051780</v>
+        <v>7052250</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7324,10 +7324,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130886803</v>
+        <v>130886795</v>
       </c>
       <c r="B68" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7359,10 +7359,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>433904</v>
+        <v>434130</v>
       </c>
       <c r="R68" t="n">
-        <v>7052250</v>
+        <v>7052154</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7429,7 +7429,7 @@
         <v>130886819</v>
       </c>
       <c r="B69" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>130886807</v>
       </c>
       <c r="B70" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>130886796</v>
       </c>
       <c r="B71" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>130886761</v>
       </c>
       <c r="B72" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7834,27 +7834,27 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130886823</v>
+        <v>130886832</v>
       </c>
       <c r="B73" t="n">
-        <v>57880</v>
+        <v>57988</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -7862,17 +7862,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>434499</v>
+        <v>434123</v>
       </c>
       <c r="R73" t="n">
-        <v>7051916</v>
+        <v>7052111</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7905,11 +7921,6 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7936,10 +7947,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130886813</v>
+        <v>130886823</v>
       </c>
       <c r="B74" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7971,10 +7982,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>434112</v>
+        <v>434499</v>
       </c>
       <c r="R74" t="n">
-        <v>7052117</v>
+        <v>7051916</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8041,7 +8052,7 @@
         <v>130886762</v>
       </c>
       <c r="B75" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8143,7 +8154,7 @@
         <v>130886821</v>
       </c>
       <c r="B76" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8242,10 +8253,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130886789</v>
+        <v>130886813</v>
       </c>
       <c r="B77" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8277,10 +8288,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>434159</v>
+        <v>434112</v>
       </c>
       <c r="R77" t="n">
-        <v>7052197</v>
+        <v>7052117</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8317,7 +8328,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8344,27 +8355,27 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130886832</v>
+        <v>130886789</v>
       </c>
       <c r="B78" t="n">
-        <v>57984</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>103031</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8372,33 +8383,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>434123</v>
+        <v>434159</v>
       </c>
       <c r="R78" t="n">
-        <v>7052111</v>
+        <v>7052197</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8431,6 +8426,11 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -1553,10 +1553,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130886779</v>
+        <v>130886838</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,23 +1564,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1588,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434359</v>
+        <v>434362</v>
       </c>
       <c r="R11" t="n">
-        <v>7052173</v>
+        <v>7052349</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1624,11 +1620,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1655,10 +1646,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130886838</v>
+        <v>130886779</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1666,19 +1657,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1686,10 +1681,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434362</v>
+        <v>434359</v>
       </c>
       <c r="R12" t="n">
-        <v>7052349</v>
+        <v>7052173</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1722,6 +1717,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -6712,7 +6712,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130886797</v>
+        <v>130886782</v>
       </c>
       <c r="B62" t="n">
         <v>57884</v>
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>434118</v>
+        <v>434188</v>
       </c>
       <c r="R62" t="n">
-        <v>7052153</v>
+        <v>7052189</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6814,7 +6814,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130886782</v>
+        <v>130886817</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -6849,10 +6849,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>434188</v>
+        <v>434240</v>
       </c>
       <c r="R63" t="n">
-        <v>7052189</v>
+        <v>7052045</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130886817</v>
+        <v>130886797</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>434240</v>
+        <v>434118</v>
       </c>
       <c r="R64" t="n">
-        <v>7052045</v>
+        <v>7052153</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -2257,7 +2257,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130886806</v>
+        <v>130886812</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>433991</v>
+        <v>434092</v>
       </c>
       <c r="R18" t="n">
-        <v>7052181</v>
+        <v>7052113</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2359,7 +2359,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130886812</v>
+        <v>130886806</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>434092</v>
+        <v>433991</v>
       </c>
       <c r="R19" t="n">
-        <v>7052113</v>
+        <v>7052181</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886831</v>
+        <v>130886792</v>
       </c>
       <c r="B21" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,16 +2574,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434871</v>
+        <v>434158</v>
       </c>
       <c r="R21" t="n">
-        <v>7051709</v>
+        <v>7052168</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2665,7 +2665,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886818</v>
+        <v>130886801</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434272</v>
+        <v>434001</v>
       </c>
       <c r="R22" t="n">
-        <v>7052031</v>
+        <v>7052192</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2767,7 +2767,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886794</v>
+        <v>130886793</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2802,10 +2802,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434140</v>
+        <v>434143</v>
       </c>
       <c r="R23" t="n">
-        <v>7052192</v>
+        <v>7052197</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2869,7 +2869,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130886801</v>
+        <v>130886794</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434001</v>
+        <v>434140</v>
       </c>
       <c r="R24" t="n">
         <v>7052192</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130886793</v>
+        <v>130886818</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3006,10 +3006,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434143</v>
+        <v>434272</v>
       </c>
       <c r="R25" t="n">
-        <v>7052197</v>
+        <v>7052031</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886792</v>
+        <v>130886836</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3084,23 +3084,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3108,10 +3104,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434158</v>
+        <v>434854</v>
       </c>
       <c r="R26" t="n">
-        <v>7052168</v>
+        <v>7051718</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3144,11 +3140,6 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3175,10 +3166,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130886836</v>
+        <v>130886831</v>
       </c>
       <c r="B27" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3186,19 +3177,23 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3206,10 +3201,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434854</v>
+        <v>434871</v>
       </c>
       <c r="R27" t="n">
-        <v>7051718</v>
+        <v>7051709</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3242,6 +3237,11 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130886799</v>
+        <v>130886816</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>434100</v>
+        <v>434134</v>
       </c>
       <c r="R31" t="n">
-        <v>7052230</v>
+        <v>7052114</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3778,7 +3778,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130886816</v>
+        <v>130886799</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>434134</v>
+        <v>434100</v>
       </c>
       <c r="R33" t="n">
-        <v>7052114</v>
+        <v>7052230</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4084,7 +4084,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130886810</v>
+        <v>130886822</v>
       </c>
       <c r="B36" t="n">
         <v>57884</v>
@@ -4113,16 +4113,24 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>434078</v>
+        <v>434465</v>
       </c>
       <c r="R36" t="n">
-        <v>7052137</v>
+        <v>7051934</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4159,7 +4167,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4186,7 +4194,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130886822</v>
+        <v>130886810</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -4215,24 +4223,16 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>434465</v>
+        <v>434078</v>
       </c>
       <c r="R37" t="n">
-        <v>7051934</v>
+        <v>7052137</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4486,7 +4486,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130886805</v>
+        <v>130886825</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>433991</v>
+        <v>434476</v>
       </c>
       <c r="R40" t="n">
-        <v>7052188</v>
+        <v>7051885</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4588,7 +4588,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886825</v>
+        <v>130886805</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>434476</v>
+        <v>433991</v>
       </c>
       <c r="R41" t="n">
-        <v>7051885</v>
+        <v>7052188</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4783,7 +4783,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130886798</v>
+        <v>130886786</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>434094</v>
+        <v>434196</v>
       </c>
       <c r="R43" t="n">
-        <v>7052167</v>
+        <v>7052215</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4885,7 +4885,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130886828</v>
+        <v>130886798</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -4920,10 +4920,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>434679</v>
+        <v>434094</v>
       </c>
       <c r="R44" t="n">
-        <v>7051828</v>
+        <v>7052167</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130886786</v>
+        <v>130886828</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>434196</v>
+        <v>434679</v>
       </c>
       <c r="R45" t="n">
-        <v>7052215</v>
+        <v>7051828</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5191,7 +5191,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130886768</v>
+        <v>130886802</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>434508</v>
+        <v>434012</v>
       </c>
       <c r="R47" t="n">
-        <v>7052004</v>
+        <v>7052200</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130886830</v>
+        <v>130886768</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -5430,10 +5430,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>434860</v>
+        <v>434508</v>
       </c>
       <c r="R49" t="n">
-        <v>7051773</v>
+        <v>7052004</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5497,7 +5497,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130886802</v>
+        <v>130886830</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>434012</v>
+        <v>434860</v>
       </c>
       <c r="R50" t="n">
-        <v>7052200</v>
+        <v>7051773</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5692,7 +5692,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130886788</v>
+        <v>130886791</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>434171</v>
+        <v>434162</v>
       </c>
       <c r="R52" t="n">
-        <v>7052213</v>
+        <v>7052153</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5794,7 +5794,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886811</v>
+        <v>130886765</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5829,10 +5829,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434077</v>
+        <v>434505</v>
       </c>
       <c r="R53" t="n">
-        <v>7052133</v>
+        <v>7052005</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5896,7 +5896,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886765</v>
+        <v>130886788</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434505</v>
+        <v>434171</v>
       </c>
       <c r="R54" t="n">
-        <v>7052005</v>
+        <v>7052213</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6100,7 +6100,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886785</v>
+        <v>130886811</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6135,10 +6135,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434191</v>
+        <v>434077</v>
       </c>
       <c r="R56" t="n">
-        <v>7052193</v>
+        <v>7052133</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6202,7 +6202,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886791</v>
+        <v>130886785</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6237,10 +6237,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434162</v>
+        <v>434191</v>
       </c>
       <c r="R57" t="n">
-        <v>7052153</v>
+        <v>7052193</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6304,7 +6304,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130886814</v>
+        <v>130886771</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>434117</v>
+        <v>434495</v>
       </c>
       <c r="R58" t="n">
-        <v>7052108</v>
+        <v>7052002</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6508,7 +6508,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130886781</v>
+        <v>130886814</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>434196</v>
+        <v>434117</v>
       </c>
       <c r="R60" t="n">
-        <v>7052172</v>
+        <v>7052108</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6610,7 +6610,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130886771</v>
+        <v>130886781</v>
       </c>
       <c r="B61" t="n">
         <v>57884</v>
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>434495</v>
+        <v>434196</v>
       </c>
       <c r="R61" t="n">
-        <v>7052002</v>
+        <v>7052172</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130886782</v>
+        <v>130886817</v>
       </c>
       <c r="B62" t="n">
         <v>57884</v>
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>434188</v>
+        <v>434240</v>
       </c>
       <c r="R62" t="n">
-        <v>7052189</v>
+        <v>7052045</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130886817</v>
+        <v>130886782</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -6849,10 +6849,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>434240</v>
+        <v>434188</v>
       </c>
       <c r="R63" t="n">
-        <v>7052045</v>
+        <v>7052189</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130886829</v>
+        <v>130886795</v>
       </c>
       <c r="B66" t="n">
         <v>57884</v>
@@ -7155,10 +7155,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>434697</v>
+        <v>434130</v>
       </c>
       <c r="R66" t="n">
-        <v>7051780</v>
+        <v>7052154</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7222,7 +7222,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130886803</v>
+        <v>130886829</v>
       </c>
       <c r="B67" t="n">
         <v>57884</v>
@@ -7257,10 +7257,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>433904</v>
+        <v>434697</v>
       </c>
       <c r="R67" t="n">
-        <v>7052250</v>
+        <v>7051780</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7324,7 +7324,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130886795</v>
+        <v>130886803</v>
       </c>
       <c r="B68" t="n">
         <v>57884</v>
@@ -7359,10 +7359,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>434130</v>
+        <v>433904</v>
       </c>
       <c r="R68" t="n">
-        <v>7052154</v>
+        <v>7052250</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130886762</v>
+        <v>130886813</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8084,10 +8084,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>434867</v>
+        <v>434112</v>
       </c>
       <c r="R75" t="n">
-        <v>7051762</v>
+        <v>7052117</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8151,7 +8151,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130886821</v>
+        <v>130886762</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8186,10 +8186,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>434468</v>
+        <v>434867</v>
       </c>
       <c r="R76" t="n">
-        <v>7051906</v>
+        <v>7051762</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130886813</v>
+        <v>130886821</v>
       </c>
       <c r="B77" t="n">
         <v>57884</v>
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>434112</v>
+        <v>434468</v>
       </c>
       <c r="R77" t="n">
-        <v>7052117</v>
+        <v>7051906</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -4690,10 +4690,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130886846</v>
+        <v>130886786</v>
       </c>
       <c r="B42" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4701,19 +4701,23 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -4721,10 +4725,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>434095</v>
+        <v>434196</v>
       </c>
       <c r="R42" t="n">
-        <v>7052227</v>
+        <v>7052215</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4757,6 +4761,11 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4783,7 +4792,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130886786</v>
+        <v>130886798</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -4818,10 +4827,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>434196</v>
+        <v>434094</v>
       </c>
       <c r="R43" t="n">
-        <v>7052215</v>
+        <v>7052167</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4858,7 +4867,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4885,7 +4894,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130886798</v>
+        <v>130886828</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -4920,10 +4929,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>434094</v>
+        <v>434679</v>
       </c>
       <c r="R44" t="n">
-        <v>7052167</v>
+        <v>7051828</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4987,10 +4996,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130886828</v>
+        <v>130886846</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4998,23 +5007,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5022,10 +5027,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>434679</v>
+        <v>434095</v>
       </c>
       <c r="R45" t="n">
-        <v>7051828</v>
+        <v>7052227</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5058,11 +5063,6 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -7834,27 +7834,27 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130886832</v>
+        <v>130886823</v>
       </c>
       <c r="B73" t="n">
-        <v>57988</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>103031</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -7862,33 +7862,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>434123</v>
+        <v>434499</v>
       </c>
       <c r="R73" t="n">
-        <v>7052111</v>
+        <v>7051916</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7921,6 +7905,11 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7947,7 +7936,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130886823</v>
+        <v>130886813</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -7982,10 +7971,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>434499</v>
+        <v>434112</v>
       </c>
       <c r="R74" t="n">
-        <v>7051916</v>
+        <v>7052117</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8049,7 +8038,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130886813</v>
+        <v>130886762</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8084,10 +8073,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>434112</v>
+        <v>434867</v>
       </c>
       <c r="R75" t="n">
-        <v>7052117</v>
+        <v>7051762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8124,7 +8113,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8151,7 +8140,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130886762</v>
+        <v>130886821</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8186,10 +8175,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>434867</v>
+        <v>434468</v>
       </c>
       <c r="R76" t="n">
-        <v>7051762</v>
+        <v>7051906</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8253,7 +8242,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130886821</v>
+        <v>130886789</v>
       </c>
       <c r="B77" t="n">
         <v>57884</v>
@@ -8288,10 +8277,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>434468</v>
+        <v>434159</v>
       </c>
       <c r="R77" t="n">
-        <v>7051906</v>
+        <v>7052197</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8355,27 +8344,27 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130886789</v>
+        <v>130886832</v>
       </c>
       <c r="B78" t="n">
-        <v>57884</v>
+        <v>57988</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8383,17 +8372,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>434159</v>
+        <v>434123</v>
       </c>
       <c r="R78" t="n">
-        <v>7052197</v>
+        <v>7052111</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8426,11 +8431,6 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130886843</v>
+        <v>130886842</v>
       </c>
       <c r="B2" t="n">
         <v>91828</v>
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>434321</v>
+        <v>434316</v>
       </c>
       <c r="R2" t="n">
-        <v>7052458</v>
+        <v>7052462</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130886842</v>
+        <v>130886843</v>
       </c>
       <c r="B3" t="n">
         <v>91828</v>
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>434316</v>
+        <v>434321</v>
       </c>
       <c r="R3" t="n">
-        <v>7052462</v>
+        <v>7052458</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130886838</v>
+        <v>130886779</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,19 +1564,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1584,10 +1588,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434362</v>
+        <v>434359</v>
       </c>
       <c r="R11" t="n">
-        <v>7052349</v>
+        <v>7052173</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1620,6 +1624,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1646,10 +1655,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130886779</v>
+        <v>130886838</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,23 +1666,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1681,10 +1686,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434359</v>
+        <v>434362</v>
       </c>
       <c r="R12" t="n">
-        <v>7052173</v>
+        <v>7052349</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1717,11 +1722,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886792</v>
+        <v>130886836</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,23 +2574,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2598,10 +2594,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434158</v>
+        <v>434854</v>
       </c>
       <c r="R21" t="n">
-        <v>7052168</v>
+        <v>7051718</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2634,11 +2630,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2665,7 +2656,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886801</v>
+        <v>130886792</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2700,10 +2691,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434001</v>
+        <v>434158</v>
       </c>
       <c r="R22" t="n">
-        <v>7052192</v>
+        <v>7052168</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2740,7 +2731,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2767,7 +2758,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886793</v>
+        <v>130886801</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2802,10 +2793,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434143</v>
+        <v>434001</v>
       </c>
       <c r="R23" t="n">
-        <v>7052197</v>
+        <v>7052192</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2842,7 +2833,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2869,7 +2860,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130886794</v>
+        <v>130886793</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -2904,10 +2895,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434140</v>
+        <v>434143</v>
       </c>
       <c r="R24" t="n">
-        <v>7052192</v>
+        <v>7052197</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2944,7 +2935,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2971,7 +2962,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130886818</v>
+        <v>130886794</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3006,10 +2997,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434272</v>
+        <v>434140</v>
       </c>
       <c r="R25" t="n">
-        <v>7052031</v>
+        <v>7052192</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3046,7 +3037,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3073,10 +3064,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886836</v>
+        <v>130886818</v>
       </c>
       <c r="B26" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3084,19 +3075,23 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3104,10 +3099,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434854</v>
+        <v>434272</v>
       </c>
       <c r="R26" t="n">
-        <v>7051718</v>
+        <v>7052031</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3140,6 +3135,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4296,10 +4296,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130886845</v>
+        <v>130886835</v>
       </c>
       <c r="B38" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4307,19 +4307,23 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4327,10 +4331,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>434162</v>
+        <v>434666</v>
       </c>
       <c r="R38" t="n">
-        <v>7052165</v>
+        <v>7051843</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4389,10 +4393,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886835</v>
+        <v>130886845</v>
       </c>
       <c r="B39" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4400,23 +4404,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434666</v>
+        <v>434162</v>
       </c>
       <c r="R39" t="n">
-        <v>7051843</v>
+        <v>7052165</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130886837</v>
+        <v>130886791</v>
       </c>
       <c r="B51" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5610,19 +5610,23 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -5630,10 +5634,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>434513</v>
+        <v>434162</v>
       </c>
       <c r="R51" t="n">
-        <v>7052004</v>
+        <v>7052153</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5666,6 +5670,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5692,7 +5701,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130886791</v>
+        <v>130886765</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5727,10 +5736,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>434162</v>
+        <v>434505</v>
       </c>
       <c r="R52" t="n">
-        <v>7052153</v>
+        <v>7052005</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5794,7 +5803,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886765</v>
+        <v>130886788</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5829,10 +5838,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434505</v>
+        <v>434171</v>
       </c>
       <c r="R53" t="n">
-        <v>7052005</v>
+        <v>7052213</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5869,7 +5878,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5896,7 +5905,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886788</v>
+        <v>130886826</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5931,10 +5940,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434171</v>
+        <v>434489</v>
       </c>
       <c r="R54" t="n">
-        <v>7052213</v>
+        <v>7051863</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5998,7 +6007,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130886826</v>
+        <v>130886811</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6033,10 +6042,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>434489</v>
+        <v>434077</v>
       </c>
       <c r="R55" t="n">
-        <v>7051863</v>
+        <v>7052133</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6073,7 +6082,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6100,7 +6109,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886811</v>
+        <v>130886785</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6135,10 +6144,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434077</v>
+        <v>434191</v>
       </c>
       <c r="R56" t="n">
-        <v>7052133</v>
+        <v>7052193</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6175,7 +6184,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6202,10 +6211,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886785</v>
+        <v>130886837</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6213,23 +6222,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6237,10 +6242,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434191</v>
+        <v>434513</v>
       </c>
       <c r="R57" t="n">
-        <v>7052193</v>
+        <v>7052004</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6273,11 +6278,6 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7834,27 +7834,27 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130886823</v>
+        <v>130886832</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>57988</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -7862,17 +7862,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>434499</v>
+        <v>434123</v>
       </c>
       <c r="R73" t="n">
-        <v>7051916</v>
+        <v>7052111</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7905,11 +7921,6 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7936,7 +7947,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130886813</v>
+        <v>130886823</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -7971,10 +7982,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>434112</v>
+        <v>434499</v>
       </c>
       <c r="R74" t="n">
-        <v>7052117</v>
+        <v>7051916</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8038,7 +8049,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130886762</v>
+        <v>130886813</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8073,10 +8084,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>434867</v>
+        <v>434112</v>
       </c>
       <c r="R75" t="n">
-        <v>7051762</v>
+        <v>7052117</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8113,7 +8124,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8140,7 +8151,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130886821</v>
+        <v>130886762</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8175,10 +8186,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>434468</v>
+        <v>434867</v>
       </c>
       <c r="R76" t="n">
-        <v>7051906</v>
+        <v>7051762</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8242,7 +8253,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130886789</v>
+        <v>130886821</v>
       </c>
       <c r="B77" t="n">
         <v>57884</v>
@@ -8277,10 +8288,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>434159</v>
+        <v>434468</v>
       </c>
       <c r="R77" t="n">
-        <v>7052197</v>
+        <v>7051906</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8344,27 +8355,27 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130886832</v>
+        <v>130886789</v>
       </c>
       <c r="B78" t="n">
-        <v>57988</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>103031</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8372,33 +8383,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>434123</v>
+        <v>434159</v>
       </c>
       <c r="R78" t="n">
-        <v>7052111</v>
+        <v>7052197</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8431,6 +8426,11 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130886842</v>
+        <v>130886843</v>
       </c>
       <c r="B2" t="n">
         <v>91828</v>
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>434316</v>
+        <v>434321</v>
       </c>
       <c r="R2" t="n">
-        <v>7052462</v>
+        <v>7052458</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130886843</v>
+        <v>130886842</v>
       </c>
       <c r="B3" t="n">
         <v>91828</v>
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>434321</v>
+        <v>434316</v>
       </c>
       <c r="R3" t="n">
-        <v>7052458</v>
+        <v>7052462</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130886839</v>
+        <v>130886774</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1759,19 +1759,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1779,10 +1783,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434382</v>
+        <v>434519</v>
       </c>
       <c r="R13" t="n">
-        <v>7052442</v>
+        <v>7052220</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1815,6 +1819,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1841,10 +1850,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130886774</v>
+        <v>130886839</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1852,23 +1861,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -1876,10 +1881,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434519</v>
+        <v>434382</v>
       </c>
       <c r="R14" t="n">
-        <v>7052220</v>
+        <v>7052442</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1912,11 +1917,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886836</v>
+        <v>130886831</v>
       </c>
       <c r="B21" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,19 +2574,23 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2594,10 +2598,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434854</v>
+        <v>434871</v>
       </c>
       <c r="R21" t="n">
-        <v>7051718</v>
+        <v>7051709</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2630,6 +2634,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2656,10 +2665,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886792</v>
+        <v>130886836</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2667,23 +2676,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2691,10 +2696,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434158</v>
+        <v>434854</v>
       </c>
       <c r="R22" t="n">
-        <v>7052168</v>
+        <v>7051718</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2727,11 +2732,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2758,7 +2758,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886801</v>
+        <v>130886792</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434001</v>
+        <v>434158</v>
       </c>
       <c r="R23" t="n">
-        <v>7052192</v>
+        <v>7052168</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2860,7 +2860,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130886793</v>
+        <v>130886801</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434143</v>
+        <v>434001</v>
       </c>
       <c r="R24" t="n">
-        <v>7052197</v>
+        <v>7052192</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130886794</v>
+        <v>130886793</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434140</v>
+        <v>434143</v>
       </c>
       <c r="R25" t="n">
-        <v>7052192</v>
+        <v>7052197</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3064,7 +3064,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886818</v>
+        <v>130886794</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434272</v>
+        <v>434140</v>
       </c>
       <c r="R26" t="n">
-        <v>7052031</v>
+        <v>7052192</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,10 +3166,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130886831</v>
+        <v>130886818</v>
       </c>
       <c r="B27" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3177,16 +3177,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434871</v>
+        <v>434272</v>
       </c>
       <c r="R27" t="n">
-        <v>7051709</v>
+        <v>7052031</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4393,10 +4393,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886845</v>
+        <v>130886825</v>
       </c>
       <c r="B39" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4404,19 +4404,23 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -4424,10 +4428,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434162</v>
+        <v>434476</v>
       </c>
       <c r="R39" t="n">
-        <v>7052165</v>
+        <v>7051885</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4460,6 +4464,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4486,7 +4495,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130886825</v>
+        <v>130886805</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4521,10 +4530,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>434476</v>
+        <v>433991</v>
       </c>
       <c r="R40" t="n">
-        <v>7051885</v>
+        <v>7052188</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4561,7 +4570,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4588,10 +4597,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886805</v>
+        <v>130886845</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4599,23 +4608,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -4623,10 +4628,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>433991</v>
+        <v>434162</v>
       </c>
       <c r="R41" t="n">
-        <v>7052188</v>
+        <v>7052165</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4659,11 +4664,6 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5599,10 +5599,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130886791</v>
+        <v>130886837</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5610,23 +5610,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -5634,10 +5630,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>434162</v>
+        <v>434513</v>
       </c>
       <c r="R51" t="n">
-        <v>7052153</v>
+        <v>7052004</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5670,11 +5666,6 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5701,7 +5692,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130886765</v>
+        <v>130886791</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5736,10 +5727,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>434505</v>
+        <v>434162</v>
       </c>
       <c r="R52" t="n">
-        <v>7052005</v>
+        <v>7052153</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5803,7 +5794,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886788</v>
+        <v>130886765</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5838,10 +5829,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434171</v>
+        <v>434505</v>
       </c>
       <c r="R53" t="n">
-        <v>7052213</v>
+        <v>7052005</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5878,7 +5869,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5905,7 +5896,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886826</v>
+        <v>130886788</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5940,10 +5931,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434489</v>
+        <v>434171</v>
       </c>
       <c r="R54" t="n">
-        <v>7051863</v>
+        <v>7052213</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6007,7 +5998,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130886811</v>
+        <v>130886826</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6042,10 +6033,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>434077</v>
+        <v>434489</v>
       </c>
       <c r="R55" t="n">
-        <v>7052133</v>
+        <v>7051863</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6082,7 +6073,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6109,7 +6100,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886785</v>
+        <v>130886811</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6144,10 +6135,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434191</v>
+        <v>434077</v>
       </c>
       <c r="R56" t="n">
-        <v>7052193</v>
+        <v>7052133</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6184,7 +6175,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6211,10 +6202,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886837</v>
+        <v>130886785</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6222,19 +6213,23 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6242,10 +6237,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434513</v>
+        <v>434191</v>
       </c>
       <c r="R57" t="n">
-        <v>7052004</v>
+        <v>7052193</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6278,6 +6273,11 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7834,27 +7834,27 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130886832</v>
+        <v>130886823</v>
       </c>
       <c r="B73" t="n">
-        <v>57988</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>103031</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -7862,33 +7862,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>434123</v>
+        <v>434499</v>
       </c>
       <c r="R73" t="n">
-        <v>7052111</v>
+        <v>7051916</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7921,6 +7905,11 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7947,7 +7936,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130886823</v>
+        <v>130886813</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -7982,10 +7971,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>434499</v>
+        <v>434112</v>
       </c>
       <c r="R74" t="n">
-        <v>7051916</v>
+        <v>7052117</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8049,7 +8038,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130886813</v>
+        <v>130886762</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8084,10 +8073,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>434112</v>
+        <v>434867</v>
       </c>
       <c r="R75" t="n">
-        <v>7052117</v>
+        <v>7051762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8124,7 +8113,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8151,7 +8140,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130886762</v>
+        <v>130886821</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8186,10 +8175,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>434867</v>
+        <v>434468</v>
       </c>
       <c r="R76" t="n">
-        <v>7051762</v>
+        <v>7051906</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8253,7 +8242,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130886821</v>
+        <v>130886789</v>
       </c>
       <c r="B77" t="n">
         <v>57884</v>
@@ -8288,10 +8277,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>434468</v>
+        <v>434159</v>
       </c>
       <c r="R77" t="n">
-        <v>7051906</v>
+        <v>7052197</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8355,27 +8344,27 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130886789</v>
+        <v>130886832</v>
       </c>
       <c r="B78" t="n">
-        <v>57884</v>
+        <v>57988</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8383,17 +8372,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>434159</v>
+        <v>434123</v>
       </c>
       <c r="R78" t="n">
-        <v>7052197</v>
+        <v>7052111</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8426,11 +8431,6 @@
       <c r="AA78" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -1553,10 +1553,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130886779</v>
+        <v>130886838</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,23 +1564,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1588,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434359</v>
+        <v>434362</v>
       </c>
       <c r="R11" t="n">
-        <v>7052173</v>
+        <v>7052349</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1624,11 +1620,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1655,10 +1646,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130886838</v>
+        <v>130886779</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1666,19 +1657,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1686,10 +1681,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434362</v>
+        <v>434359</v>
       </c>
       <c r="R12" t="n">
-        <v>7052349</v>
+        <v>7052173</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1722,6 +1717,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1748,10 +1748,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130886774</v>
+        <v>130886839</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1759,23 +1759,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1783,10 +1779,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434519</v>
+        <v>434382</v>
       </c>
       <c r="R13" t="n">
-        <v>7052220</v>
+        <v>7052442</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1819,11 +1815,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1850,10 +1841,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130886839</v>
+        <v>130886774</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1861,19 +1852,23 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -1881,10 +1876,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434382</v>
+        <v>434519</v>
       </c>
       <c r="R14" t="n">
-        <v>7052442</v>
+        <v>7052220</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1917,6 +1912,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -4393,10 +4393,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886825</v>
+        <v>130886845</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4404,23 +4404,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -4428,10 +4424,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434476</v>
+        <v>434162</v>
       </c>
       <c r="R39" t="n">
-        <v>7051885</v>
+        <v>7052165</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4464,11 +4460,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4495,7 +4486,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130886805</v>
+        <v>130886825</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4530,10 +4521,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>433991</v>
+        <v>434476</v>
       </c>
       <c r="R40" t="n">
-        <v>7052188</v>
+        <v>7051885</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4570,7 +4561,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4597,10 +4588,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886845</v>
+        <v>130886805</v>
       </c>
       <c r="B41" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4608,19 +4599,23 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -4628,10 +4623,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>434162</v>
+        <v>433991</v>
       </c>
       <c r="R41" t="n">
-        <v>7052165</v>
+        <v>7052188</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4664,6 +4659,11 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4690,10 +4690,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130886786</v>
+        <v>130886846</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4701,23 +4701,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -4725,10 +4721,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>434196</v>
+        <v>434095</v>
       </c>
       <c r="R42" t="n">
-        <v>7052215</v>
+        <v>7052227</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4761,11 +4757,6 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4792,7 +4783,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130886798</v>
+        <v>130886786</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -4827,10 +4818,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>434094</v>
+        <v>434196</v>
       </c>
       <c r="R43" t="n">
-        <v>7052167</v>
+        <v>7052215</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4867,7 +4858,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4894,7 +4885,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130886828</v>
+        <v>130886798</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -4929,10 +4920,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>434679</v>
+        <v>434094</v>
       </c>
       <c r="R44" t="n">
-        <v>7051828</v>
+        <v>7052167</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4996,10 +4987,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130886846</v>
+        <v>130886828</v>
       </c>
       <c r="B45" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5007,19 +4998,23 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5027,10 +5022,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>434095</v>
+        <v>434679</v>
       </c>
       <c r="R45" t="n">
-        <v>7052227</v>
+        <v>7051828</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5063,6 +5058,11 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -1748,10 +1748,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130886839</v>
+        <v>130886774</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1759,19 +1759,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1779,10 +1783,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434382</v>
+        <v>434519</v>
       </c>
       <c r="R13" t="n">
-        <v>7052442</v>
+        <v>7052220</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1815,6 +1819,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1841,10 +1850,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130886774</v>
+        <v>130886839</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1852,23 +1861,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -1876,10 +1881,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434519</v>
+        <v>434382</v>
       </c>
       <c r="R14" t="n">
-        <v>7052220</v>
+        <v>7052442</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1912,11 +1917,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886831</v>
+        <v>130886836</v>
       </c>
       <c r="B21" t="n">
-        <v>57881</v>
+        <v>91828</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,23 +2574,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2598,10 +2594,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434871</v>
+        <v>434854</v>
       </c>
       <c r="R21" t="n">
-        <v>7051709</v>
+        <v>7051718</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2634,11 +2630,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2665,10 +2656,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886836</v>
+        <v>130886831</v>
       </c>
       <c r="B22" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2676,19 +2667,23 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2696,10 +2691,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434854</v>
+        <v>434871</v>
       </c>
       <c r="R22" t="n">
-        <v>7051718</v>
+        <v>7051709</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2732,6 +2727,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -5599,10 +5599,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130886837</v>
+        <v>130886791</v>
       </c>
       <c r="B51" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5610,19 +5610,23 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -5630,10 +5634,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>434513</v>
+        <v>434162</v>
       </c>
       <c r="R51" t="n">
-        <v>7052004</v>
+        <v>7052153</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5666,6 +5670,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5692,7 +5701,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130886791</v>
+        <v>130886765</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5727,10 +5736,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>434162</v>
+        <v>434505</v>
       </c>
       <c r="R52" t="n">
-        <v>7052153</v>
+        <v>7052005</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5794,7 +5803,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886765</v>
+        <v>130886788</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5829,10 +5838,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434505</v>
+        <v>434171</v>
       </c>
       <c r="R53" t="n">
-        <v>7052005</v>
+        <v>7052213</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5869,7 +5878,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5896,7 +5905,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886788</v>
+        <v>130886826</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5931,10 +5940,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434171</v>
+        <v>434489</v>
       </c>
       <c r="R54" t="n">
-        <v>7052213</v>
+        <v>7051863</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5998,7 +6007,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130886826</v>
+        <v>130886811</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6033,10 +6042,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>434489</v>
+        <v>434077</v>
       </c>
       <c r="R55" t="n">
-        <v>7051863</v>
+        <v>7052133</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6073,7 +6082,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6100,7 +6109,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886811</v>
+        <v>130886785</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6135,10 +6144,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434077</v>
+        <v>434191</v>
       </c>
       <c r="R56" t="n">
-        <v>7052133</v>
+        <v>7052193</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6175,7 +6184,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6202,10 +6211,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886785</v>
+        <v>130886837</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6213,23 +6222,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6237,10 +6242,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434191</v>
+        <v>434513</v>
       </c>
       <c r="R57" t="n">
-        <v>7052193</v>
+        <v>7052004</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6273,11 +6278,6 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -1748,10 +1748,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130886774</v>
+        <v>130886839</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1759,23 +1759,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1783,10 +1779,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434519</v>
+        <v>434382</v>
       </c>
       <c r="R13" t="n">
-        <v>7052220</v>
+        <v>7052442</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1819,11 +1815,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1850,10 +1841,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130886839</v>
+        <v>130886774</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1861,19 +1852,23 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -1881,10 +1876,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434382</v>
+        <v>434519</v>
       </c>
       <c r="R14" t="n">
-        <v>7052442</v>
+        <v>7052220</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1917,6 +1912,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1943,7 +1943,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130886777</v>
+        <v>130886759</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -1972,16 +1972,24 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>434295</v>
+        <v>434213</v>
       </c>
       <c r="R15" t="n">
-        <v>7052449</v>
+        <v>7052218</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2018,7 +2026,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Gammalt bohål i grantickerötad gran. Troligen gjort av tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2045,7 +2053,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130886759</v>
+        <v>130886777</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2074,24 +2082,16 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>434213</v>
+        <v>434295</v>
       </c>
       <c r="R16" t="n">
-        <v>7052218</v>
+        <v>7052449</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran. Troligen gjort av tretåig hackspett.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130886812</v>
+        <v>130886806</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>434092</v>
+        <v>433991</v>
       </c>
       <c r="R18" t="n">
-        <v>7052113</v>
+        <v>7052181</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2359,7 +2359,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130886806</v>
+        <v>130886812</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>433991</v>
+        <v>434092</v>
       </c>
       <c r="R19" t="n">
-        <v>7052181</v>
+        <v>7052113</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886836</v>
+        <v>130886818</v>
       </c>
       <c r="B21" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,19 +2574,23 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2594,10 +2598,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434854</v>
+        <v>434272</v>
       </c>
       <c r="R21" t="n">
-        <v>7051718</v>
+        <v>7052031</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2630,6 +2634,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2656,10 +2665,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886831</v>
+        <v>130886801</v>
       </c>
       <c r="B22" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2667,16 +2676,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2691,10 +2700,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434871</v>
+        <v>434001</v>
       </c>
       <c r="R22" t="n">
-        <v>7051709</v>
+        <v>7052192</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2731,7 +2740,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Hack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2758,10 +2767,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886792</v>
+        <v>130886831</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2769,16 +2778,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2793,10 +2802,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434158</v>
+        <v>434871</v>
       </c>
       <c r="R23" t="n">
-        <v>7052168</v>
+        <v>7051709</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2833,7 +2842,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2860,10 +2869,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130886801</v>
+        <v>130886836</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2871,23 +2880,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -2895,10 +2900,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434001</v>
+        <v>434854</v>
       </c>
       <c r="R24" t="n">
-        <v>7052192</v>
+        <v>7051718</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2931,11 +2936,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130886793</v>
+        <v>130886792</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434143</v>
+        <v>434158</v>
       </c>
       <c r="R25" t="n">
-        <v>7052197</v>
+        <v>7052168</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886794</v>
+        <v>130886793</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434140</v>
+        <v>434143</v>
       </c>
       <c r="R26" t="n">
-        <v>7052192</v>
+        <v>7052197</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,7 +3166,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130886818</v>
+        <v>130886794</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434272</v>
+        <v>434140</v>
       </c>
       <c r="R27" t="n">
-        <v>7052031</v>
+        <v>7052192</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3370,7 +3370,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130886827</v>
+        <v>130886787</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>434485</v>
+        <v>434193</v>
       </c>
       <c r="R29" t="n">
-        <v>7051846</v>
+        <v>7052219</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3472,7 +3472,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130886787</v>
+        <v>130886827</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>434193</v>
+        <v>434485</v>
       </c>
       <c r="R30" t="n">
-        <v>7052219</v>
+        <v>7051846</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130886816</v>
+        <v>130886799</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>434134</v>
+        <v>434100</v>
       </c>
       <c r="R31" t="n">
-        <v>7052114</v>
+        <v>7052230</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3676,7 +3676,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130886766</v>
+        <v>130886816</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -3711,10 +3711,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>434506</v>
+        <v>434134</v>
       </c>
       <c r="R32" t="n">
-        <v>7052005</v>
+        <v>7052114</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130886799</v>
+        <v>130886766</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>434100</v>
+        <v>434506</v>
       </c>
       <c r="R33" t="n">
-        <v>7052230</v>
+        <v>7052005</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3880,7 +3880,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130886824</v>
+        <v>130886770</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>434488</v>
+        <v>434510</v>
       </c>
       <c r="R34" t="n">
-        <v>7051909</v>
+        <v>7052005</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -3982,7 +3982,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130886770</v>
+        <v>130886824</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4017,10 +4017,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>434510</v>
+        <v>434488</v>
       </c>
       <c r="R35" t="n">
-        <v>7052005</v>
+        <v>7051909</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4084,7 +4084,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130886822</v>
+        <v>130886810</v>
       </c>
       <c r="B36" t="n">
         <v>57884</v>
@@ -4113,24 +4113,16 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>434465</v>
+        <v>434078</v>
       </c>
       <c r="R36" t="n">
-        <v>7051934</v>
+        <v>7052137</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4167,7 +4159,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4194,7 +4186,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130886810</v>
+        <v>130886822</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -4223,16 +4215,24 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>434078</v>
+        <v>434465</v>
       </c>
       <c r="R37" t="n">
-        <v>7052137</v>
+        <v>7051934</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4296,10 +4296,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130886835</v>
+        <v>130886845</v>
       </c>
       <c r="B38" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4307,23 +4307,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4331,10 +4327,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>434666</v>
+        <v>434162</v>
       </c>
       <c r="R38" t="n">
-        <v>7051843</v>
+        <v>7052165</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4393,10 +4389,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886845</v>
+        <v>130886835</v>
       </c>
       <c r="B39" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4404,19 +4400,23 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434162</v>
+        <v>434666</v>
       </c>
       <c r="R39" t="n">
-        <v>7052165</v>
+        <v>7051843</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130886825</v>
+        <v>130886805</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>434476</v>
+        <v>433991</v>
       </c>
       <c r="R40" t="n">
-        <v>7051885</v>
+        <v>7052188</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4588,7 +4588,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886805</v>
+        <v>130886825</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>433991</v>
+        <v>434476</v>
       </c>
       <c r="R41" t="n">
-        <v>7052188</v>
+        <v>7051885</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5191,7 +5191,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130886802</v>
+        <v>130886773</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>434012</v>
+        <v>434554</v>
       </c>
       <c r="R47" t="n">
-        <v>7052200</v>
+        <v>7052008</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130886773</v>
+        <v>130886830</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>434554</v>
+        <v>434860</v>
       </c>
       <c r="R48" t="n">
-        <v>7052008</v>
+        <v>7051773</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130886768</v>
+        <v>130886802</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -5430,10 +5430,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>434508</v>
+        <v>434012</v>
       </c>
       <c r="R49" t="n">
-        <v>7052004</v>
+        <v>7052200</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5497,7 +5497,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130886830</v>
+        <v>130886768</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>434860</v>
+        <v>434508</v>
       </c>
       <c r="R50" t="n">
-        <v>7051773</v>
+        <v>7052004</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5599,10 +5599,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130886791</v>
+        <v>130886837</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5610,23 +5610,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -5634,10 +5630,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>434162</v>
+        <v>434513</v>
       </c>
       <c r="R51" t="n">
-        <v>7052153</v>
+        <v>7052004</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5670,11 +5666,6 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5803,7 +5794,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886788</v>
+        <v>130886785</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5838,10 +5829,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434171</v>
+        <v>434191</v>
       </c>
       <c r="R53" t="n">
-        <v>7052213</v>
+        <v>7052193</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5905,7 +5896,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886826</v>
+        <v>130886788</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5940,10 +5931,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434489</v>
+        <v>434171</v>
       </c>
       <c r="R54" t="n">
-        <v>7051863</v>
+        <v>7052213</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6109,7 +6100,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886785</v>
+        <v>130886826</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6144,10 +6135,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434191</v>
+        <v>434489</v>
       </c>
       <c r="R56" t="n">
-        <v>7052193</v>
+        <v>7051863</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6211,10 +6202,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886837</v>
+        <v>130886791</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6222,19 +6213,23 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6242,10 +6237,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434513</v>
+        <v>434162</v>
       </c>
       <c r="R57" t="n">
-        <v>7052004</v>
+        <v>7052153</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6278,6 +6273,11 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6304,7 +6304,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130886771</v>
+        <v>130886814</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>434495</v>
+        <v>434117</v>
       </c>
       <c r="R58" t="n">
-        <v>7052002</v>
+        <v>7052108</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6508,7 +6508,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130886814</v>
+        <v>130886771</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>434117</v>
+        <v>434495</v>
       </c>
       <c r="R60" t="n">
-        <v>7052108</v>
+        <v>7052002</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6712,7 +6712,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130886817</v>
+        <v>130886782</v>
       </c>
       <c r="B62" t="n">
         <v>57884</v>
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>434240</v>
+        <v>434188</v>
       </c>
       <c r="R62" t="n">
-        <v>7052045</v>
+        <v>7052189</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130886782</v>
+        <v>130886797</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -6849,10 +6849,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>434188</v>
+        <v>434118</v>
       </c>
       <c r="R63" t="n">
-        <v>7052189</v>
+        <v>7052153</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -6916,7 +6916,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130886797</v>
+        <v>130886817</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>434118</v>
+        <v>434240</v>
       </c>
       <c r="R64" t="n">
-        <v>7052153</v>
+        <v>7052045</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7222,7 +7222,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130886829</v>
+        <v>130886803</v>
       </c>
       <c r="B67" t="n">
         <v>57884</v>
@@ -7257,10 +7257,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>434697</v>
+        <v>433904</v>
       </c>
       <c r="R67" t="n">
-        <v>7051780</v>
+        <v>7052250</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7324,7 +7324,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130886803</v>
+        <v>130886829</v>
       </c>
       <c r="B68" t="n">
         <v>57884</v>
@@ -7359,10 +7359,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>433904</v>
+        <v>434697</v>
       </c>
       <c r="R68" t="n">
-        <v>7052250</v>
+        <v>7051780</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7834,7 +7834,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130886823</v>
+        <v>130886762</v>
       </c>
       <c r="B73" t="n">
         <v>57884</v>
@@ -7869,10 +7869,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>434499</v>
+        <v>434867</v>
       </c>
       <c r="R73" t="n">
-        <v>7051916</v>
+        <v>7051762</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7936,7 +7936,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130886813</v>
+        <v>130886823</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>434112</v>
+        <v>434499</v>
       </c>
       <c r="R74" t="n">
-        <v>7052117</v>
+        <v>7051916</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130886762</v>
+        <v>130886821</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8073,10 +8073,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>434867</v>
+        <v>434468</v>
       </c>
       <c r="R75" t="n">
-        <v>7051762</v>
+        <v>7051906</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130886821</v>
+        <v>130886813</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8175,10 +8175,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>434468</v>
+        <v>434112</v>
       </c>
       <c r="R76" t="n">
-        <v>7051906</v>
+        <v>7052117</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD76" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130886843</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>130886842</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>130886844</v>
       </c>
       <c r="B7" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>130886841</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>130886840</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130886838</v>
+        <v>130886779</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,19 +1564,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1584,10 +1588,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434362</v>
+        <v>434359</v>
       </c>
       <c r="R11" t="n">
-        <v>7052349</v>
+        <v>7052173</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1620,6 +1624,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1646,10 +1655,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130886779</v>
+        <v>130886838</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,23 +1666,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1681,10 +1686,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434359</v>
+        <v>434362</v>
       </c>
       <c r="R12" t="n">
-        <v>7052173</v>
+        <v>7052349</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1717,11 +1722,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1748,10 +1748,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130886839</v>
+        <v>130886774</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1759,19 +1759,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1779,10 +1783,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434382</v>
+        <v>434519</v>
       </c>
       <c r="R13" t="n">
-        <v>7052442</v>
+        <v>7052220</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1815,6 +1819,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1841,10 +1850,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130886774</v>
+        <v>130886839</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1852,23 +1861,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -1876,10 +1881,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434519</v>
+        <v>434382</v>
       </c>
       <c r="R14" t="n">
-        <v>7052220</v>
+        <v>7052442</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1912,11 +1917,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1943,7 +1943,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130886759</v>
+        <v>130886777</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -1972,24 +1972,16 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>434213</v>
+        <v>434295</v>
       </c>
       <c r="R15" t="n">
-        <v>7052218</v>
+        <v>7052449</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2026,7 +2018,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran. Troligen gjort av tretåig hackspett.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2053,7 +2045,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130886777</v>
+        <v>130886759</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2082,16 +2074,24 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>434295</v>
+        <v>434213</v>
       </c>
       <c r="R16" t="n">
-        <v>7052449</v>
+        <v>7052218</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Gammalt bohål i grantickerötad gran. Troligen gjort av tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130886806</v>
+        <v>130886812</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>433991</v>
+        <v>434092</v>
       </c>
       <c r="R18" t="n">
-        <v>7052181</v>
+        <v>7052113</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2359,7 +2359,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130886812</v>
+        <v>130886806</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>434092</v>
+        <v>433991</v>
       </c>
       <c r="R19" t="n">
-        <v>7052113</v>
+        <v>7052181</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2563,10 +2563,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130886818</v>
+        <v>130886836</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,23 +2574,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2598,10 +2594,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434272</v>
+        <v>434854</v>
       </c>
       <c r="R21" t="n">
-        <v>7052031</v>
+        <v>7051718</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2634,11 +2630,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2665,10 +2656,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886801</v>
+        <v>130886831</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2676,16 +2667,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2700,10 +2691,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434001</v>
+        <v>434871</v>
       </c>
       <c r="R22" t="n">
-        <v>7052192</v>
+        <v>7051709</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2740,7 +2731,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2767,10 +2758,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886831</v>
+        <v>130886792</v>
       </c>
       <c r="B23" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2778,16 +2769,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2802,10 +2793,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434871</v>
+        <v>434158</v>
       </c>
       <c r="R23" t="n">
-        <v>7051709</v>
+        <v>7052168</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2842,7 +2833,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2869,10 +2860,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130886836</v>
+        <v>130886801</v>
       </c>
       <c r="B24" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2880,19 +2871,23 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -2900,10 +2895,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434854</v>
+        <v>434001</v>
       </c>
       <c r="R24" t="n">
-        <v>7051718</v>
+        <v>7052192</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2936,6 +2931,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130886792</v>
+        <v>130886793</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434158</v>
+        <v>434143</v>
       </c>
       <c r="R25" t="n">
-        <v>7052168</v>
+        <v>7052197</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886793</v>
+        <v>130886794</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434143</v>
+        <v>434140</v>
       </c>
       <c r="R26" t="n">
-        <v>7052197</v>
+        <v>7052192</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,7 +3166,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130886794</v>
+        <v>130886818</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434140</v>
+        <v>434272</v>
       </c>
       <c r="R27" t="n">
-        <v>7052192</v>
+        <v>7052031</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3370,7 +3370,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130886787</v>
+        <v>130886827</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>434193</v>
+        <v>434485</v>
       </c>
       <c r="R29" t="n">
-        <v>7052219</v>
+        <v>7051846</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3472,7 +3472,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130886827</v>
+        <v>130886787</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>434485</v>
+        <v>434193</v>
       </c>
       <c r="R30" t="n">
-        <v>7051846</v>
+        <v>7052219</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130886799</v>
+        <v>130886816</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>434100</v>
+        <v>434134</v>
       </c>
       <c r="R31" t="n">
-        <v>7052230</v>
+        <v>7052114</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3676,7 +3676,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130886816</v>
+        <v>130886766</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -3711,10 +3711,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>434134</v>
+        <v>434506</v>
       </c>
       <c r="R32" t="n">
-        <v>7052114</v>
+        <v>7052005</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130886766</v>
+        <v>130886799</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>434506</v>
+        <v>434100</v>
       </c>
       <c r="R33" t="n">
-        <v>7052005</v>
+        <v>7052230</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3880,7 +3880,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130886770</v>
+        <v>130886824</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>434510</v>
+        <v>434488</v>
       </c>
       <c r="R34" t="n">
-        <v>7052005</v>
+        <v>7051909</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -3982,7 +3982,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130886824</v>
+        <v>130886770</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4017,10 +4017,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>434488</v>
+        <v>434510</v>
       </c>
       <c r="R35" t="n">
-        <v>7051909</v>
+        <v>7052005</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4084,7 +4084,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130886810</v>
+        <v>130886822</v>
       </c>
       <c r="B36" t="n">
         <v>57884</v>
@@ -4113,16 +4113,24 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>434078</v>
+        <v>434465</v>
       </c>
       <c r="R36" t="n">
-        <v>7052137</v>
+        <v>7051934</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4159,7 +4167,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4186,7 +4194,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130886822</v>
+        <v>130886810</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -4215,24 +4223,16 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Rävlungerflon, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>434465</v>
+        <v>434078</v>
       </c>
       <c r="R37" t="n">
-        <v>7051934</v>
+        <v>7052137</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Möjligt påbörjat gammalt bohål ca 1,7 m upp i rötad gran</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4296,10 +4296,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130886845</v>
+        <v>130886835</v>
       </c>
       <c r="B38" t="n">
-        <v>91828</v>
+        <v>91805</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4307,19 +4307,23 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4327,10 +4331,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>434162</v>
+        <v>434666</v>
       </c>
       <c r="R38" t="n">
-        <v>7052165</v>
+        <v>7051843</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4389,10 +4393,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886835</v>
+        <v>130886825</v>
       </c>
       <c r="B39" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4400,21 +4404,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4424,10 +4428,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434666</v>
+        <v>434476</v>
       </c>
       <c r="R39" t="n">
-        <v>7051843</v>
+        <v>7051885</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4460,6 +4464,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4588,10 +4597,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886825</v>
+        <v>130886845</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4599,23 +4608,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -4623,10 +4628,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>434476</v>
+        <v>434162</v>
       </c>
       <c r="R41" t="n">
-        <v>7051885</v>
+        <v>7052165</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4659,11 +4664,6 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4690,10 +4690,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130886846</v>
+        <v>130886786</v>
       </c>
       <c r="B42" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4701,19 +4701,23 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -4721,10 +4725,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>434095</v>
+        <v>434196</v>
       </c>
       <c r="R42" t="n">
-        <v>7052227</v>
+        <v>7052215</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4757,6 +4761,11 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4783,7 +4792,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130886786</v>
+        <v>130886798</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -4818,10 +4827,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>434196</v>
+        <v>434094</v>
       </c>
       <c r="R43" t="n">
-        <v>7052215</v>
+        <v>7052167</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4858,7 +4867,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4885,7 +4894,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130886798</v>
+        <v>130886828</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -4920,10 +4929,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>434094</v>
+        <v>434679</v>
       </c>
       <c r="R44" t="n">
-        <v>7052167</v>
+        <v>7051828</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4987,10 +4996,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130886828</v>
+        <v>130886846</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4998,23 +5007,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5022,10 +5027,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>434679</v>
+        <v>434095</v>
       </c>
       <c r="R45" t="n">
-        <v>7051828</v>
+        <v>7052227</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5058,11 +5063,6 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5191,7 +5191,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130886773</v>
+        <v>130886802</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>434554</v>
+        <v>434012</v>
       </c>
       <c r="R47" t="n">
-        <v>7052008</v>
+        <v>7052200</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130886830</v>
+        <v>130886768</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>434860</v>
+        <v>434508</v>
       </c>
       <c r="R48" t="n">
-        <v>7051773</v>
+        <v>7052004</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130886802</v>
+        <v>130886773</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -5430,10 +5430,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>434012</v>
+        <v>434554</v>
       </c>
       <c r="R49" t="n">
-        <v>7052200</v>
+        <v>7052008</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130886768</v>
+        <v>130886830</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>434508</v>
+        <v>434860</v>
       </c>
       <c r="R50" t="n">
-        <v>7052004</v>
+        <v>7051773</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5602,7 +5602,7 @@
         <v>130886837</v>
       </c>
       <c r="B51" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130886785</v>
+        <v>130886788</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -5829,10 +5829,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>434191</v>
+        <v>434171</v>
       </c>
       <c r="R53" t="n">
-        <v>7052193</v>
+        <v>7052213</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130886788</v>
+        <v>130886826</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -5931,10 +5931,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>434171</v>
+        <v>434489</v>
       </c>
       <c r="R54" t="n">
-        <v>7052213</v>
+        <v>7051863</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130886826</v>
+        <v>130886785</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -6135,10 +6135,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>434489</v>
+        <v>434191</v>
       </c>
       <c r="R56" t="n">
-        <v>7051863</v>
+        <v>7052193</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130886814</v>
+        <v>130886771</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>434117</v>
+        <v>434495</v>
       </c>
       <c r="R58" t="n">
-        <v>7052108</v>
+        <v>7052002</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6508,7 +6508,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130886771</v>
+        <v>130886814</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>434495</v>
+        <v>434117</v>
       </c>
       <c r="R60" t="n">
-        <v>7052002</v>
+        <v>7052108</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6712,7 +6712,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130886782</v>
+        <v>130886817</v>
       </c>
       <c r="B62" t="n">
         <v>57884</v>
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>434188</v>
+        <v>434240</v>
       </c>
       <c r="R62" t="n">
-        <v>7052189</v>
+        <v>7052045</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130886797</v>
+        <v>130886782</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -6849,10 +6849,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>434118</v>
+        <v>434188</v>
       </c>
       <c r="R63" t="n">
-        <v>7052153</v>
+        <v>7052189</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -6916,7 +6916,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130886817</v>
+        <v>130886797</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>434240</v>
+        <v>434118</v>
       </c>
       <c r="R64" t="n">
-        <v>7052045</v>
+        <v>7052153</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7222,7 +7222,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130886803</v>
+        <v>130886829</v>
       </c>
       <c r="B67" t="n">
         <v>57884</v>
@@ -7257,10 +7257,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>433904</v>
+        <v>434697</v>
       </c>
       <c r="R67" t="n">
-        <v>7052250</v>
+        <v>7051780</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7324,7 +7324,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130886829</v>
+        <v>130886803</v>
       </c>
       <c r="B68" t="n">
         <v>57884</v>
@@ -7359,10 +7359,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>434697</v>
+        <v>433904</v>
       </c>
       <c r="R68" t="n">
-        <v>7051780</v>
+        <v>7052250</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7834,7 +7834,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130886762</v>
+        <v>130886823</v>
       </c>
       <c r="B73" t="n">
         <v>57884</v>
@@ -7869,10 +7869,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>434867</v>
+        <v>434499</v>
       </c>
       <c r="R73" t="n">
-        <v>7051762</v>
+        <v>7051916</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7936,7 +7936,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130886823</v>
+        <v>130886813</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>434499</v>
+        <v>434112</v>
       </c>
       <c r="R74" t="n">
-        <v>7051916</v>
+        <v>7052117</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130886821</v>
+        <v>130886762</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8073,10 +8073,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>434468</v>
+        <v>434867</v>
       </c>
       <c r="R75" t="n">
-        <v>7051906</v>
+        <v>7051762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130886813</v>
+        <v>130886821</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8175,10 +8175,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>434112</v>
+        <v>434468</v>
       </c>
       <c r="R76" t="n">
-        <v>7052117</v>
+        <v>7051906</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD76" t="b">

--- a/artfynd/A 60977-2025 artfynd.xlsx
+++ b/artfynd/A 60977-2025 artfynd.xlsx
@@ -1553,10 +1553,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130886779</v>
+        <v>130886838</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,23 +1564,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1588,10 +1584,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434359</v>
+        <v>434362</v>
       </c>
       <c r="R11" t="n">
-        <v>7052173</v>
+        <v>7052349</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1624,11 +1620,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1655,10 +1646,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130886838</v>
+        <v>130886779</v>
       </c>
       <c r="B12" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1666,19 +1657,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1686,10 +1681,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434362</v>
+        <v>434359</v>
       </c>
       <c r="R12" t="n">
-        <v>7052349</v>
+        <v>7052173</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1722,6 +1717,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2656,10 +2656,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130886831</v>
+        <v>130886792</v>
       </c>
       <c r="B22" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2667,16 +2667,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434871</v>
+        <v>434158</v>
       </c>
       <c r="R22" t="n">
-        <v>7051709</v>
+        <v>7052168</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2758,7 +2758,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130886792</v>
+        <v>130886801</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434158</v>
+        <v>434001</v>
       </c>
       <c r="R23" t="n">
-        <v>7052168</v>
+        <v>7052192</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2860,7 +2860,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130886801</v>
+        <v>130886793</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434001</v>
+        <v>434143</v>
       </c>
       <c r="R24" t="n">
-        <v>7052192</v>
+        <v>7052197</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130886793</v>
+        <v>130886794</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434143</v>
+        <v>434140</v>
       </c>
       <c r="R25" t="n">
-        <v>7052197</v>
+        <v>7052192</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3064,7 +3064,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130886794</v>
+        <v>130886818</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434140</v>
+        <v>434272</v>
       </c>
       <c r="R26" t="n">
-        <v>7052192</v>
+        <v>7052031</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,10 +3166,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130886818</v>
+        <v>130886831</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3177,16 +3177,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434272</v>
+        <v>434871</v>
       </c>
       <c r="R27" t="n">
-        <v>7052031</v>
+        <v>7051709</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4296,10 +4296,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130886835</v>
+        <v>130886845</v>
       </c>
       <c r="B38" t="n">
-        <v>91805</v>
+        <v>91829</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4307,23 +4307,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4331,10 +4327,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>434666</v>
+        <v>434162</v>
       </c>
       <c r="R38" t="n">
-        <v>7051843</v>
+        <v>7052165</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4393,10 +4389,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130886825</v>
+        <v>130886835</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4404,21 +4400,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4428,10 +4424,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>434476</v>
+        <v>434666</v>
       </c>
       <c r="R39" t="n">
-        <v>7051885</v>
+        <v>7051843</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4464,11 +4460,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4495,7 +4486,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130886805</v>
+        <v>130886825</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4530,10 +4521,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>433991</v>
+        <v>434476</v>
       </c>
       <c r="R40" t="n">
-        <v>7052188</v>
+        <v>7051885</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4570,7 +4561,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4597,10 +4588,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130886845</v>
+        <v>130886805</v>
       </c>
       <c r="B41" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4608,19 +4599,23 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -4628,10 +4623,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>434162</v>
+        <v>433991</v>
       </c>
       <c r="R41" t="n">
-        <v>7052165</v>
+        <v>7052188</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4664,6 +4659,11 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5293,7 +5293,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130886768</v>
+        <v>130886773</v>
       </c>
       <c r="B48" t="n">
         <v>57884</v>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>434508</v>
+        <v>434554</v>
       </c>
       <c r="R48" t="n">
-        <v>7052004</v>
+        <v>7052008</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130886773</v>
+        <v>130886768</v>
       </c>
       <c r="B49" t="n">
         <v>57884</v>
@@ -5430,10 +5430,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>434554</v>
+        <v>434508</v>
       </c>
       <c r="R49" t="n">
-        <v>7052008</v>
+        <v>7052004</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5599,10 +5599,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130886837</v>
+        <v>130886791</v>
       </c>
       <c r="B51" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5610,19 +5610,23 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -5630,10 +5634,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>434513</v>
+        <v>434162</v>
       </c>
       <c r="R51" t="n">
-        <v>7052004</v>
+        <v>7052153</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5666,6 +5670,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6202,10 +6211,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130886791</v>
+        <v>130886837</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6213,23 +6222,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6237,10 +6242,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>434162</v>
+        <v>434513</v>
       </c>
       <c r="R57" t="n">
-        <v>7052153</v>
+        <v>7052004</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6273,11 +6278,6 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
